--- a/data/trans_bre/P35_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P35_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,94</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-50,39%</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-51,99%</t>
+          <t>-47,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-56,32%</t>
+          <t>-31,42%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-45,43%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-10,26%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,18; -2,82</t>
+          <t>-15,0; -1,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -2,43</t>
+          <t>-11,14; 2,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,27; -3,07</t>
+          <t>-12,8; -0,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-69,04; -20,62</t>
+          <t>-7,05; 6,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-70,82; -19,65</t>
+          <t>-72,05; -9,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-74,91; -27,56</t>
+          <t>-64,49; 27,24</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-73,07; -0,21</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-51,69; 92,87</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-20,11</t>
+          <t>-21,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-21,64</t>
+          <t>-22,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,83</t>
+          <t>-20,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-90,18%</t>
+          <t>-19,82</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-89,29%</t>
+          <t>-88,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>-95,15%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>-87,45%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-88,18%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,3; -14,75</t>
+          <t>-31,38; -14,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,79; -15,74</t>
+          <t>-29,41; -15,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,91; -13,39</t>
+          <t>-27,33; -13,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-96,05; -79,02</t>
+          <t>-27,38; -13,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-96,31; -72,92</t>
+          <t>-96,27; -72,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-94,67; -73,0</t>
+          <t>-100,0; -81,35</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-95,84; -70,42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-95,6; -73,18</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-14,36</t>
+          <t>-7,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,23</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-15,97</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-66,42%</t>
+          <t>-11,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-74,31%</t>
+          <t>-36,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-75,75%</t>
+          <t>-41,06%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-29,21%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-68,7%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,31; -2,16</t>
+          <t>-28,68; 12,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,88; -1,88</t>
+          <t>-21,39; 9,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,92; -4,95</t>
+          <t>-19,8; 13,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-89,54; -6,87</t>
+          <t>-30,79; 4,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-95,05; 1,47</t>
+          <t>-81,11; 165,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-94,08; -16,24</t>
+          <t>-91,94; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-82,15; 328,31</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,61</t>
+          <t>-13,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,38</t>
+          <t>-11,64</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,94</t>
+          <t>-11,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-71,06%</t>
+          <t>-9,56</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-74,2%</t>
+          <t>-66,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-74,65%</t>
+          <t>-67,85%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-66,76%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-60,11%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,64; -9,94</t>
+          <t>-19,14; -7,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,81; -9,65</t>
+          <t>-16,74; -6,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,57; -9,51</t>
+          <t>-16,84; -6,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-80,33; -59,87</t>
+          <t>-14,79; -4,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-82,12; -60,68</t>
+          <t>-78,99; -47,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-82,83; -61,95</t>
+          <t>-80,73; -47,27</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-79,28; -46,29</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-75,8; -35,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P35_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P35_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,65</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,97</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,16</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-47,05%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-31,42%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-45,43%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-10,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-9.528019980867565</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.920121619711084</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.371813545982327</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.377683091800665</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.5440321362845276</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.3210675895633678</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.4766754054862254</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1329703415441315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,0; -1,19</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,14; 2,26</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,8; -0,07</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,05; 6,04</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-72,05; -9,9</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-64,49; 27,24</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-73,07; -0,21</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-51,69; 92,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-17.39221238561692</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.94628883428606</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-12.7204713078525</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-7.098083089714281</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7551764541706957</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6514074333985166</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.7379362669018812</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5470424710287125</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-2.795518509265225</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.056456058441082</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.2959630169636638</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.41607908722581</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>-0.2089361802989279</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2626315856858238</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.02566817019154463</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.876800009285853</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-21,19</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-22,35</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-20,14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-19,82</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-88,48%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-95,15%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-87,45%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-88,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-31,38; -14,08</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-29,41; -15,39</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-27,33; -13,08</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-27,38; -13,25</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-96,27; -72,43</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -81,35</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-95,84; -70,42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-95,6; -73,18</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-19.56472459801779</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-22.80209371614167</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-21.50743023755819</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-20.3636670277209</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.8774982983051056</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.9539117962786999</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.8884158376251367</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.8839898457232667</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-7,78</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,04</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-11,03</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-36,94%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-41,06%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-29,21%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-68,7%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-29.50555981903522</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-30.09677204855116</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-30.11498229249588</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-28.56818820708738</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9606469180535218</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.9645580659659537</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.9561870226715175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-28,68; 12,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-21,39; 9,35</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-19,8; 13,07</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-30,79; 4,07</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-81,11; 165,98</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-91,94; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-82,15; 328,31</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-12.1669077902886</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-15.7270850302949</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-13.93727919393387</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-13.46606061671631</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.7088639194945547</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.8325507078390015</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.7405747899955543</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.7435029301336401</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,193 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-13,25</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-11,64</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-11,66</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-9,56</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-66,53%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-67,85%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-66,76%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-60,11%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-10.8713653699448</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-8.048588551042231</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-6.344476890353709</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-10.52567543233791</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.4933195883094139</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5543005123934631</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.4187317707272935</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.6916692459827946</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-19,14; -7,88</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-16,74; -6,81</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-16,84; -6,81</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-14,79; -4,8</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-78,99; -47,34</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-80,73; -47,27</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-79,28; -46,29</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-75,8; -35,6</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-31.22264995357155</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-26.12933738144411</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-23.68148717137361</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-29.51125739130137</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8624718994444562</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8750648098472874</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.76549523923779</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.84014360157786</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.42017046805906</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.359820855860977</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.201303461931592</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>3.977155764881426</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.724129283171189</v>
+      </c>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-13.77268383565407</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-12.22795654053419</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-12.70644855887941</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-9.969825957469235</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.6893699425935237</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.7006127626967427</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.7007785287998043</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.6223341553041599</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-19.89944580112702</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-17.34594629599383</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-18.40330263099721</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-15.2217491887052</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.8031611181228864</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.8179338721166087</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.8130071557746419</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.769941391795213</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-8.596070866626432</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-7.363516626346376</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-7.855645468691224</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-4.956247448464091</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.5159793910632441</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.5083590043155468</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.5105798297904153</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.3867412500899672</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1021,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
